--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1085">
   <si>
     <t>anchor score</t>
   </si>
@@ -376,610 +376,610 @@
     <t>affected</t>
   </si>
   <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>inflation</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>better</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>ban</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>inflation</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>special</t>
@@ -3637,7 +3637,7 @@
         <v>80</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K3">
         <v>0.9322033898305084</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K4">
         <v>0.8661417322834646</v>
@@ -3966,7 +3966,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8">
         <v>0.7834394904458599</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K9">
         <v>0.7111111111111111</v>
@@ -4066,28 +4066,28 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="K10">
-        <v>0.7025862068965517</v>
+        <v>0.6950354609929078</v>
       </c>
       <c r="L10">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="N10">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4116,28 +4116,28 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>0.6950354609929078</v>
+        <v>0.693069306930693</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4166,28 +4166,28 @@
         <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K12">
-        <v>0.693069306930693</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4216,28 +4216,28 @@
         <v>94</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>319</v>
       </c>
       <c r="K13">
-        <v>0.6888888888888889</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L13">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4266,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K14">
         <v>0.6089238845144357</v>
@@ -4316,28 +4316,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="K15">
-        <v>0.6036585365853658</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L15">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4369,13 +4369,13 @@
         <v>321</v>
       </c>
       <c r="K16">
-        <v>0.5873015873015873</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4466,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K18">
         <v>0.548951048951049</v>
@@ -4516,7 +4516,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K19">
         <v>0.5402298850574713</v>
@@ -4616,7 +4616,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K21">
         <v>0.4912280701754386</v>
@@ -4666,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K22">
         <v>0.484375</v>
@@ -4766,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K24">
         <v>0.4776119402985075</v>
@@ -4966,7 +4966,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K28">
         <v>0.4113924050632912</v>
@@ -5016,7 +5016,7 @@
         <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K29">
         <v>0.40625</v>
@@ -5116,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K31">
         <v>0.4</v>
@@ -5366,7 +5366,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K36">
         <v>0.3809523809523809</v>
@@ -5416,7 +5416,7 @@
         <v>5</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K37">
         <v>0.3773584905660378</v>
@@ -5566,7 +5566,7 @@
         <v>8</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K40">
         <v>0.3617021276595745</v>
@@ -5616,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K41">
         <v>0.3609756097560975</v>
@@ -6116,7 +6116,7 @@
         <v>5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K51">
         <v>0.3166666666666667</v>
@@ -6316,7 +6316,7 @@
         <v>377</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K55">
         <v>0.3012820512820513</v>
@@ -6566,7 +6566,7 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K60">
         <v>0.2901234567901235</v>
@@ -6866,7 +6866,7 @@
         <v>29</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K66">
         <v>0.2736842105263158</v>
@@ -7116,7 +7116,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K71">
         <v>0.2619047619047619</v>
@@ -7216,7 +7216,7 @@
         <v>62</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K73">
         <v>0.25181598062954</v>
@@ -7866,7 +7866,7 @@
         <v>16</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K86">
         <v>0.2473118279569892</v>
@@ -7966,7 +7966,7 @@
         <v>27</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K88">
         <v>0.2426470588235294</v>
@@ -8066,7 +8066,7 @@
         <v>34</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K90">
         <v>0.24</v>
@@ -8166,7 +8166,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K92">
         <v>0.2394366197183098</v>
@@ -8216,7 +8216,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K93">
         <v>0.2394366197183098</v>
@@ -8466,7 +8466,7 @@
         <v>33</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K98">
         <v>0.2325056433408578</v>
@@ -8566,7 +8566,7 @@
         <v>7</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K100">
         <v>0.2307692307692308</v>
@@ -8866,7 +8866,7 @@
         <v>15</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K106">
         <v>0.2287581699346405</v>
@@ -8916,7 +8916,7 @@
         <v>8</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K107">
         <v>0.2272727272727273</v>
@@ -9016,7 +9016,7 @@
         <v>25</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K109">
         <v>0.2258064516129032</v>
@@ -9295,25 +9295,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.09210526315789473</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F115">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>391</v>
@@ -9351,16 +9351,16 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>10</v>
@@ -9448,22 +9448,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>394</v>
@@ -9495,25 +9495,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09090909090909091</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E119">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>395</v>
@@ -9545,13 +9545,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.08724832214765101</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C120">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9563,10 +9563,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K120">
         <v>0.2142857142857143</v>
@@ -9601,22 +9601,22 @@
         <v>2</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>21</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K121">
         <v>0.2142857142857143</v>
@@ -9645,25 +9645,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>396</v>
@@ -9695,28 +9695,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08450704225352113</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K123">
         <v>0.2111801242236025</v>
@@ -9766,7 +9766,7 @@
         <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K124">
         <v>0.2111731843575419</v>
@@ -9801,16 +9801,16 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>11</v>
@@ -9895,28 +9895,28 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="E127">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F127">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K127">
         <v>0.2083333333333333</v>
@@ -9945,25 +9945,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>399</v>
@@ -9995,28 +9995,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K129">
         <v>0.2077922077922078</v>
@@ -10045,28 +10045,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.07894736842105263</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K130">
         <v>0.2072072072072072</v>
@@ -10095,13 +10095,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07692307692307693</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -10113,10 +10113,10 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K131">
         <v>0.2054794520547945</v>
@@ -10145,25 +10145,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>400</v>
@@ -10195,13 +10195,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.07272727272727272</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -10213,10 +10213,10 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K133">
         <v>0.2021276595744681</v>
@@ -10266,7 +10266,7 @@
         <v>13</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K134">
         <v>0.2018348623853211</v>
@@ -10301,22 +10301,22 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>13</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K135">
         <v>0.2011661807580175</v>
@@ -10345,25 +10345,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F136">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>401</v>
@@ -10395,28 +10395,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F137">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K137">
         <v>0.2</v>
@@ -10445,25 +10445,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.06976744186046512</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>402</v>
@@ -10501,16 +10501,16 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>14</v>
@@ -10545,28 +10545,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.06666666666666667</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K140">
         <v>0.2</v>
@@ -10595,7 +10595,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10613,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>404</v>
@@ -10645,25 +10645,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.06521739130434782</v>
+        <v>0.0625</v>
       </c>
       <c r="C142">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F142">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>405</v>
@@ -10751,16 +10751,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>15</v>
@@ -10816,7 +10816,7 @@
         <v>15</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K145">
         <v>0.2</v>
@@ -10895,7 +10895,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>409</v>
@@ -10945,13 +10945,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>410</v>
@@ -10995,7 +10995,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>411</v>
@@ -11048,10 +11048,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>412</v>
@@ -11101,22 +11101,22 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>17</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K151">
         <v>0.2</v>
@@ -11151,16 +11151,16 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>17</v>
@@ -11195,25 +11195,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E153">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>414</v>
@@ -11245,25 +11245,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>76</v>
@@ -11295,28 +11295,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="F155">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K155">
         <v>0.1984410522897045</v>
@@ -11345,13 +11345,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -11363,10 +11363,10 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K156">
         <v>0.1978230004732608</v>
@@ -11395,25 +11395,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>415</v>
@@ -11445,13 +11445,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>416</v>
@@ -11498,25 +11498,25 @@
         <v>0.05</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K159">
         <v>0.1923076923076923</v>
@@ -11566,7 +11566,7 @@
         <v>19</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K160">
         <v>0.1904761904761905</v>
@@ -11601,13 +11601,13 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
@@ -11645,28 +11645,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K162">
         <v>0.1877729257641921</v>
@@ -11695,25 +11695,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E163">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>418</v>
@@ -11751,13 +11751,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -11766,7 +11766,7 @@
         <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K164">
         <v>0.1851851851851852</v>
@@ -11795,28 +11795,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K165">
         <v>0.1829787234042553</v>
@@ -11845,25 +11845,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>419</v>
@@ -11895,13 +11895,13 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>420</v>
@@ -11945,7 +11945,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>421</v>
@@ -11995,25 +11995,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>422</v>
@@ -12051,16 +12051,16 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>22</v>
@@ -12098,22 +12098,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E171">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F171">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>424</v>
@@ -12151,13 +12151,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -12198,22 +12198,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>426</v>
@@ -12245,25 +12245,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>427</v>
@@ -12295,28 +12295,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K175">
         <v>0.1774193548387097</v>
@@ -12345,28 +12345,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K176">
         <v>0.1769230769230769</v>
@@ -12395,25 +12395,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>428</v>
@@ -12451,16 +12451,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>25</v>
@@ -12495,28 +12495,28 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E179">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F179">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K179">
         <v>0.1764705882352941</v>
@@ -12545,25 +12545,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>430</v>
@@ -12601,16 +12601,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>26</v>
@@ -12645,25 +12645,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>432</v>
@@ -12695,28 +12695,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K183">
         <v>0.1739130434782609</v>
@@ -12795,25 +12795,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F185">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>434</v>
@@ -12845,25 +12845,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03571428571428571</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>435</v>
@@ -12895,25 +12895,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>436</v>
@@ -12945,25 +12945,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>437</v>
@@ -12998,22 +12998,22 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E189">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F189">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>438</v>
@@ -13045,25 +13045,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F190">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>439</v>
@@ -13095,25 +13095,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
         <v>3</v>
       </c>
-      <c r="D191">
-        <v>25</v>
-      </c>
       <c r="E191">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F191">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>440</v>
@@ -13151,13 +13151,13 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F192">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -13166,7 +13166,7 @@
         <v>30</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K192">
         <v>0.1666666666666667</v>
@@ -13201,13 +13201,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E193">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -13245,25 +13245,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03225806451612903</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E194">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>442</v>
@@ -13295,25 +13295,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D195">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>443</v>
@@ -13345,25 +13345,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03157894736842105</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>444</v>
@@ -13395,25 +13395,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>445</v>
@@ -13445,25 +13445,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0303030303030303</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>446</v>
@@ -13495,25 +13495,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0303030303030303</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>447</v>
@@ -13545,25 +13545,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.03012048192771084</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="C200">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>448</v>
@@ -13595,25 +13595,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02985074626865672</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>449</v>
@@ -13645,25 +13645,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02962962962962963</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C202">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F202">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>450</v>
@@ -13701,16 +13701,16 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>33</v>
@@ -13745,25 +13745,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02941176470588235</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>452</v>
@@ -13795,25 +13795,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>453</v>
@@ -13845,25 +13845,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02816901408450704</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206">
         <v>28</v>
       </c>
       <c r="E206">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F206">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>454</v>
@@ -13895,25 +13895,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>455</v>
@@ -13945,25 +13945,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>456</v>
@@ -13998,22 +13998,22 @@
         <v>0.02702702702702703</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>457</v>
@@ -14045,25 +14045,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02702702702702703</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>458</v>
@@ -14095,25 +14095,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>459</v>
@@ -14145,25 +14145,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02678571428571428</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F212">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>460</v>
@@ -14195,7 +14195,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -14213,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>461</v>
@@ -14245,28 +14245,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K214">
         <v>0.163265306122449</v>
@@ -14295,28 +14295,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K215">
         <v>0.1623931623931624</v>
@@ -14351,16 +14351,16 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
         <v>39</v>
@@ -14395,25 +14395,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.025</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0.14</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>463</v>
@@ -14445,25 +14445,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E218">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F218">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>464</v>
@@ -14495,25 +14495,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02390438247011952</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.14</v>
+        <v>0.89</v>
       </c>
       <c r="F219">
-        <v>0.86</v>
+        <v>0.11</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>465</v>
@@ -14551,13 +14551,13 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E220">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F220">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
@@ -14595,25 +14595,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02380952380952381</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E221">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F221">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>467</v>
@@ -14645,25 +14645,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>468</v>
@@ -14695,25 +14695,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02352941176470588</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="E223">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="F223">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>469</v>
@@ -14745,25 +14745,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>470</v>
@@ -14795,25 +14795,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E225">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F225">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>471</v>
@@ -14851,13 +14851,13 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F226">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
@@ -14866,7 +14866,7 @@
         <v>44</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K226">
         <v>0.1574074074074074</v>
@@ -14898,25 +14898,25 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E227">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K227">
         <v>0.1570762052877138</v>
@@ -14945,25 +14945,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>472</v>
@@ -14995,28 +14995,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02222222222222222</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D229">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E229">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K229">
         <v>0.1558441558441558</v>
@@ -15045,7 +15045,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -15063,10 +15063,10 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K230">
         <v>0.154292343387471</v>
@@ -15095,28 +15095,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02142857142857143</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C231">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
+        <v>47</v>
+      </c>
+      <c r="J231" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="K231">
         <v>0.1538461538461539</v>
@@ -15145,25 +15145,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F232">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>473</v>
@@ -15195,25 +15195,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>474</v>
@@ -15245,28 +15245,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E234">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F234">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K234">
         <v>0.1538461538461539</v>
@@ -15295,25 +15295,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E235">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F235">
-        <v>0.15</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>475</v>
@@ -15345,25 +15345,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>476</v>
@@ -15395,25 +15395,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E237">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>477</v>
@@ -15445,28 +15445,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0196078431372549</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K238">
         <v>0.1518987341772152</v>
@@ -15495,25 +15495,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0196078431372549</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D239">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="E239">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F239">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>478</v>
@@ -15545,25 +15545,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01941747572815534</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
         <v>5</v>
       </c>
       <c r="E240">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F240">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>479</v>
@@ -15595,25 +15595,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0193050193050193</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E241">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F241">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>480</v>
@@ -15651,13 +15651,13 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
@@ -15695,25 +15695,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E243">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F243">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>482</v>
@@ -15745,25 +15745,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01923076923076923</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>483</v>
@@ -15795,28 +15795,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E245">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F245">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K245">
         <v>0.1443298969072165</v>
@@ -15845,28 +15845,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01834862385321101</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D246">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="E246">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F246">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>107</v>
+        <v>1695</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K246">
         <v>0.144</v>
@@ -15895,25 +15895,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E247">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F247">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>484</v>
@@ -15945,25 +15945,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01739130434782609</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C248">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>448</v>
+        <v>6</v>
       </c>
       <c r="E248">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F248">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>1695</v>
+        <v>57</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>485</v>
@@ -16051,16 +16051,16 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <v>57</v>
@@ -16095,25 +16095,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>488</v>
@@ -16145,25 +16145,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>489</v>
@@ -16195,25 +16195,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>490</v>
@@ -16245,25 +16245,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F254">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>491</v>
@@ -16295,25 +16295,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E255">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F255">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>492</v>
@@ -16345,25 +16345,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01612903225806452</v>
+        <v>0.016</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E256">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="F256">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>493</v>
@@ -16395,25 +16395,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01612903225806452</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E257">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F257">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>494</v>
@@ -16445,25 +16445,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.016</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E258">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="F258">
-        <v>0.13</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>495</v>
@@ -16495,25 +16495,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E259">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F259">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>496</v>
@@ -16545,25 +16545,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01515151515151515</v>
+        <v>0.01405405405405405</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D260">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E260">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="F260">
-        <v>0.08999999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>65</v>
+        <v>912</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>497</v>
@@ -16595,25 +16595,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01470588235294118</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F261">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>498</v>
@@ -16645,25 +16645,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01405405405405405</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C262">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E262">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="F262">
-        <v>0.23</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>912</v>
+        <v>146</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>499</v>
@@ -16695,7 +16695,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01388888888888889</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16713,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>500</v>
@@ -16745,25 +16745,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01351351351351351</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E264">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F264">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>501</v>
@@ -16795,25 +16795,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01333333333333333</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="E265">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F265">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>502</v>
@@ -16845,25 +16845,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01333333333333333</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E266">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F266">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>503</v>
@@ -16895,25 +16895,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01324503311258278</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="E267">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F267">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>504</v>
@@ -16945,25 +16945,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0131578947368421</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E268">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F268">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>505</v>
@@ -16995,25 +16995,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01298701298701299</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E269">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F269">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>506</v>
@@ -17048,22 +17048,22 @@
         <v>0.01282051282051282</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
         <v>12</v>
       </c>
       <c r="E270">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F270">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>507</v>
@@ -17095,25 +17095,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01282051282051282</v>
+        <v>0.01275045537340619</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D271">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="E271">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F271">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>77</v>
+        <v>542</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>508</v>
@@ -17145,25 +17145,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01282051282051282</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D272">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="E272">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F272">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>77</v>
+        <v>680</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>509</v>
@@ -17195,25 +17195,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01275045537340619</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C273">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="E273">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F273">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>542</v>
+        <v>87</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>510</v>
@@ -17245,13 +17245,13 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01162790697674419</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C274">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="E274">
         <v>0.96</v>
@@ -17263,7 +17263,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>680</v>
+        <v>88</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>511</v>
@@ -17295,25 +17295,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01136363636363636</v>
+        <v>0.01121794871794872</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D275">
-        <v>9</v>
+        <v>639</v>
       </c>
       <c r="E275">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F275">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>87</v>
+        <v>2468</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>512</v>
@@ -17345,25 +17345,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01123595505617977</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E276">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H276">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>513</v>
@@ -17395,25 +17395,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01121794871794872</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C277">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>639</v>
+        <v>18</v>
       </c>
       <c r="E277">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F277">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>2468</v>
+        <v>91</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>514</v>
@@ -17445,25 +17445,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01111111111111111</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>515</v>
@@ -17495,25 +17495,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.0108695652173913</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D279">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E279">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>516</v>
@@ -17545,25 +17545,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.0108695652173913</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C280">
         <v>2</v>
       </c>
       <c r="D280">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E280">
-        <v>0.78</v>
+        <v>0.33</v>
       </c>
       <c r="F280">
-        <v>0.22</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>517</v>
@@ -17595,25 +17595,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.01072386058981233</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281">
-        <v>369</v>
+        <v>93</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>518</v>
@@ -17645,25 +17645,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01063829787234043</v>
+        <v>0.01045296167247387</v>
       </c>
       <c r="C282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E282">
+        <v>0.67</v>
+      </c>
+      <c r="F282">
         <v>0.33</v>
       </c>
-      <c r="F282">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>519</v>
@@ -17695,25 +17695,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01063829787234043</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="E283">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F283">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>520</v>
@@ -17745,25 +17745,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.01045296167247387</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D284">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E284">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F284">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>521</v>
@@ -17795,28 +17795,28 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01030927835051546</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E285">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F285">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K285">
         <v>0.1411764705882353</v>
@@ -17845,28 +17845,28 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01030927835051546</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D286">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E286">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F286">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K286">
         <v>0.1411042944785276</v>
@@ -17895,25 +17895,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.009803921568627451</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E287">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F287">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>522</v>
@@ -17945,25 +17945,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.009615384615384616</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D288">
+        <v>24</v>
+      </c>
+      <c r="E288">
+        <v>0.96</v>
+      </c>
+      <c r="F288">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288">
         <v>107</v>
-      </c>
-      <c r="E288">
-        <v>0.97</v>
-      </c>
-      <c r="F288">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>309</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>523</v>
@@ -17995,25 +17995,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.009615384615384616</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E289">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F289">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>524</v>
@@ -18045,25 +18045,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.009259259259259259</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E290">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F290">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>525</v>
@@ -18095,25 +18095,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.009174311926605505</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E291">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F291">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>526</v>
@@ -18145,13 +18145,13 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.008771929824561403</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E292">
         <v>0.93</v>
@@ -18163,7 +18163,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>527</v>
@@ -18195,25 +18195,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.008771929824561403</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E293">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F293">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>528</v>
@@ -18245,25 +18245,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.008695652173913044</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E294">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F294">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>529</v>
@@ -18295,25 +18295,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.008620689655172414</v>
+        <v>0.008426966292134831</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D295">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="E295">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F295">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>115</v>
+        <v>706</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>530</v>
@@ -18345,13 +18345,13 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.008547008547008548</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D296">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E296">
         <v>0.97</v>
@@ -18363,7 +18363,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>531</v>
@@ -18395,25 +18395,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.008426966292134831</v>
+        <v>0.007827788649706457</v>
       </c>
       <c r="C297">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D297">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="E297">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F297">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>706</v>
+        <v>507</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>532</v>
@@ -18445,25 +18445,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.008403361344537815</v>
+        <v>0.0078125</v>
       </c>
       <c r="C298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D298">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E298">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F298">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>533</v>
@@ -18495,25 +18495,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.007827788649706457</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C299">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E299">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F299">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>507</v>
+        <v>128</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>534</v>
@@ -18545,25 +18545,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.0078125</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E300">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F300">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>535</v>
@@ -18595,28 +18595,28 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.007751937984496124</v>
+        <v>0.006811989100817439</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D301">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="E301">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F301">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>128</v>
+        <v>729</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K301">
         <v>0.1338138514572234</v>
@@ -18645,25 +18645,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.007092198581560284</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D302">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="E302">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F302">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>536</v>
@@ -18695,28 +18695,28 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.006811989100817439</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C303">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="E303">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F303">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>729</v>
+        <v>152</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K303">
         <v>0.1333333333333333</v>
@@ -18745,28 +18745,28 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.006622516556291391</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="C304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D304">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="E304">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F304">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>450</v>
+        <v>164</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K304">
         <v>0.1333333333333333</v>
@@ -18795,25 +18795,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.006535947712418301</v>
+        <v>0.005676442762535478</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D305">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="E305">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F305">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>152</v>
+        <v>1051</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>537</v>
@@ -18845,7 +18845,7 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.006060606060606061</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -18863,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>538</v>
@@ -18895,25 +18895,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.005676442762535478</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C307">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D307">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E307">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F307">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>1051</v>
+        <v>186</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>539</v>
@@ -18945,25 +18945,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.005555555555555556</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E308">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F308">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>540</v>
@@ -18995,25 +18995,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.0053475935828877</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E309">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F309">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>541</v>
@@ -19045,25 +19045,25 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.004807692307692308</v>
+        <v>0.003604902667627974</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D310">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="E310">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F310">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>207</v>
+        <v>2764</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>542</v>
@@ -19095,28 +19095,28 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.003703703703703704</v>
+        <v>0.002976190476190476</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E311">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F311">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K311">
         <v>0.1333333333333333</v>
@@ -19145,25 +19145,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.003604902667627974</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="C312">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D312">
-        <v>437</v>
+        <v>9</v>
       </c>
       <c r="E312">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F312">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>2764</v>
+        <v>455</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>543</v>
@@ -19191,30 +19191,6 @@
       </c>
     </row>
     <row r="313" spans="1:17">
-      <c r="A313" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B313">
-        <v>0.002976190476190476</v>
-      </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313">
-        <v>25</v>
-      </c>
-      <c r="E313">
-        <v>0.96</v>
-      </c>
-      <c r="F313">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G313" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313">
-        <v>335</v>
-      </c>
       <c r="J313" s="1" t="s">
         <v>544</v>
       </c>
@@ -19241,30 +19217,6 @@
       </c>
     </row>
     <row r="314" spans="1:17">
-      <c r="A314" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B314">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>9</v>
-      </c>
-      <c r="E314">
-        <v>0.89</v>
-      </c>
-      <c r="F314">
-        <v>0.11</v>
-      </c>
-      <c r="G314" t="b">
-        <v>1</v>
-      </c>
-      <c r="H314">
-        <v>455</v>
-      </c>
       <c r="J314" s="1" t="s">
         <v>545</v>
       </c>
@@ -19552,7 +19504,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K325">
         <v>0.125</v>
@@ -20020,7 +19972,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K343">
         <v>0.125</v>
@@ -20826,7 +20778,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K374">
         <v>0.1219512195121951</v>
@@ -20852,7 +20804,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K375">
         <v>0.1212121212121212</v>
@@ -20982,7 +20934,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K380">
         <v>0.119047619047619</v>
@@ -21034,7 +20986,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K382">
         <v>0.1180327868852459</v>
@@ -21346,7 +21298,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K394">
         <v>0.1136363636363636</v>
@@ -21632,7 +21584,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K405">
         <v>0.1111111111111111</v>
@@ -22048,7 +22000,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K421">
         <v>0.1102362204724409</v>
@@ -22126,7 +22078,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K424">
         <v>0.1076923076923077</v>
@@ -22282,7 +22234,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K430">
         <v>0.1058823529411765</v>
@@ -22568,7 +22520,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K441">
         <v>0.102803738317757</v>
@@ -22594,7 +22546,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K442">
         <v>0.1023622047244094</v>
@@ -22620,7 +22572,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K443">
         <v>0.1020408163265306</v>
@@ -22646,7 +22598,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K444">
         <v>0.1016949152542373</v>
@@ -22672,7 +22624,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K445">
         <v>0.1</v>
@@ -22750,7 +22702,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K448">
         <v>0.1</v>
@@ -23764,7 +23716,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K487">
         <v>0.09558823529411764</v>
@@ -24050,7 +24002,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K498">
         <v>0.09090909090909091</v>
@@ -24180,7 +24132,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K503">
         <v>0.09090909090909091</v>
@@ -24206,7 +24158,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K504">
         <v>0.09090909090909091</v>
@@ -24362,7 +24314,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K510">
         <v>0.09090909090909091</v>
@@ -24830,7 +24782,7 @@
     </row>
     <row r="528" spans="10:17">
       <c r="J528" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K528">
         <v>0.09004329004329005</v>
@@ -25272,7 +25224,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K545">
         <v>0.08421052631578947</v>
@@ -25298,7 +25250,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K546">
         <v>0.084070796460177</v>
@@ -25974,7 +25926,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K572">
         <v>0.08163265306122448</v>
@@ -26026,7 +25978,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K574">
         <v>0.08130081300813008</v>
@@ -26078,7 +26030,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K576">
         <v>0.08064516129032258</v>
@@ -26104,7 +26056,7 @@
     </row>
     <row r="577" spans="10:17">
       <c r="J577" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K577">
         <v>0.08</v>
@@ -26208,7 +26160,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K581">
         <v>0.07894736842105263</v>
@@ -27196,7 +27148,7 @@
     </row>
     <row r="619" spans="10:17">
       <c r="J619" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K619">
         <v>0.07407407407407407</v>
@@ -27326,7 +27278,7 @@
     </row>
     <row r="624" spans="10:17">
       <c r="J624" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K624">
         <v>0.072992700729927</v>
@@ -27352,7 +27304,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K625">
         <v>0.07272727272727272</v>
@@ -28392,7 +28344,7 @@
     </row>
     <row r="665" spans="10:17">
       <c r="J665" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K665">
         <v>0.06818181818181818</v>
@@ -28444,7 +28396,7 @@
     </row>
     <row r="667" spans="10:17">
       <c r="J667" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K667">
         <v>0.06685236768802229</v>
@@ -28938,7 +28890,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K686">
         <v>0.06569343065693431</v>
@@ -29042,7 +28994,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K690">
         <v>0.06382978723404255</v>
@@ -29068,7 +29020,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K691">
         <v>0.06349206349206349</v>
@@ -29172,7 +29124,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K695">
         <v>0.06284658040665435</v>
@@ -29276,7 +29228,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K699">
         <v>0.0625</v>
@@ -29536,7 +29488,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K709">
         <v>0.06153846153846154</v>
@@ -29562,7 +29514,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K710">
         <v>0.06122448979591837</v>
@@ -29588,7 +29540,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K711">
         <v>0.06097560975609756</v>
@@ -30134,7 +30086,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K732">
         <v>0.05797101449275362</v>
@@ -30160,7 +30112,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K733">
         <v>0.05714285714285714</v>
@@ -30212,7 +30164,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K735">
         <v>0.05607476635514019</v>
@@ -30654,7 +30606,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K752">
         <v>0.05333333333333334</v>
@@ -30836,7 +30788,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K759">
         <v>0.05263157894736842</v>
@@ -31148,7 +31100,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K771">
         <v>0.05128205128205128</v>
@@ -31850,7 +31802,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K798">
         <v>0.04545454545454546</v>
@@ -31980,7 +31932,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K803">
         <v>0.04545454545454546</v>
@@ -32058,7 +32010,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K806">
         <v>0.04502617801047121</v>
@@ -32162,7 +32114,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K810">
         <v>0.04347826086956522</v>
@@ -32370,7 +32322,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K818">
         <v>0.04347826086956522</v>
@@ -32656,7 +32608,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K829">
         <v>0.04081632653061224</v>
@@ -32812,7 +32764,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K835">
         <v>0.04</v>
@@ -32942,7 +32894,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K840">
         <v>0.03846153846153846</v>
@@ -33020,7 +32972,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K843">
         <v>0.03703703703703703</v>
@@ -33124,7 +33076,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K847">
         <v>0.03703703703703703</v>
@@ -33332,7 +33284,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K855">
         <v>0.03571428571428571</v>
@@ -33358,7 +33310,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K856">
         <v>0.03571428571428571</v>
@@ -33436,7 +33388,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K859">
         <v>0.03529411764705882</v>
@@ -33670,7 +33622,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K868">
         <v>0.03243243243243243</v>
@@ -33748,7 +33700,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K871">
         <v>0.0303030303030303</v>
@@ -33878,7 +33830,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K876">
         <v>0.02884615384615385</v>
@@ -34320,7 +34272,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K893">
         <v>0.02631578947368421</v>
@@ -34372,7 +34324,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K895">
         <v>0.02564102564102564</v>
@@ -34528,7 +34480,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K901">
         <v>0.025</v>
@@ -34710,7 +34662,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K908">
         <v>0.02068965517241379</v>
@@ -34866,7 +34818,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K914">
         <v>0.01727861771058315</v>
@@ -34892,7 +34844,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K915">
         <v>0.01724137931034483</v>
@@ -34918,7 +34870,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K916">
         <v>0.01724137931034483</v>
@@ -35204,7 +35156,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K927">
         <v>0.0053475935828877</v>
@@ -35256,7 +35208,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K929">
         <v>0.004065040650406504</v>
